--- a/data-science/00_data/04_patent_data_reduced/Patents_DB_dictionary_bulk_downloads.xlsx
+++ b/data-science/00_data/04_patent_data_reduced/Patents_DB_dictionary_bulk_downloads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smadhavan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozge/Desktop/TUHH_WS20:21/Business Data Science Basics/ws20-business-data-science-basics---lab-journal-ozge-albayrak/data-science/00_data/04_patent_data_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FC0213-99F3-914E-9D62-71149B8F68D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74BF5F4-BFFF-F642-9F9C-84FAC9976BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2160,30 +2160,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2202,6 +2178,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2218,6 +2206,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2536,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228:XFD344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2556,7 +2556,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2579,11 +2579,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2602,9 +2602,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
+    <row r="5" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2621,9 +2621,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
+    <row r="6" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
@@ -2632,9 +2632,9 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
+    <row r="7" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
@@ -2651,9 +2651,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
+    <row r="8" spans="1:7" hidden="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
@@ -2670,9 +2670,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
+    <row r="9" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
@@ -2689,9 +2689,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
+    <row r="10" spans="1:7" ht="24" hidden="1" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="33"/>
@@ -2741,10 +2741,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="69" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2764,8 +2764,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="49.75" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
@@ -2783,8 +2783,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14" customHeight="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="7" t="s">
         <v>36</v>
       </c>
@@ -2802,8 +2802,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14" customHeight="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="7" t="s">
         <v>39</v>
       </c>
@@ -2821,8 +2821,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="7" t="s">
         <v>42</v>
       </c>
@@ -2848,7 +2848,7 @@
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2871,11 +2871,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14" customHeight="1">
-      <c r="A20" s="60" t="s">
+    <row r="20" spans="1:7" ht="14" hidden="1" customHeight="1">
+      <c r="A20" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="67" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2894,9 +2894,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14" customHeight="1">
-      <c r="A21" s="60"/>
-      <c r="B21" s="61"/>
+    <row r="21" spans="1:7" ht="14" hidden="1" customHeight="1">
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
@@ -2913,9 +2913,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="61"/>
+    <row r="22" spans="1:7" ht="14" hidden="1" customHeight="1">
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="3" t="s">
         <v>53</v>
       </c>
@@ -2932,9 +2932,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="61"/>
+    <row r="23" spans="1:7" ht="14" hidden="1" customHeight="1">
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="3" t="s">
         <v>57</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14" customHeight="1">
+    <row r="24" spans="1:7" ht="14" hidden="1" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="34"/>
@@ -2960,7 +2960,7 @@
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2983,11 +2983,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14" customHeight="1">
-      <c r="A26" s="60" t="s">
+    <row r="26" spans="1:7" ht="14" hidden="1" customHeight="1">
+      <c r="A26" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="67" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -3006,9 +3006,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="61"/>
+    <row r="27" spans="1:7" ht="14" hidden="1" customHeight="1">
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
@@ -3025,9 +3025,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="61"/>
+    <row r="28" spans="1:7" ht="14" hidden="1" customHeight="1">
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="3" t="s">
         <v>63</v>
       </c>
@@ -3044,8 +3044,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14" customHeight="1"/>
-    <row r="30" spans="1:7" ht="14" customHeight="1">
+    <row r="29" spans="1:7" ht="14" hidden="1" customHeight="1"/>
+    <row r="30" spans="1:7" ht="14" hidden="1" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -3068,11 +3068,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="60" t="s">
+    <row r="31" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A31" s="66" t="s">
         <v>548</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="69" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3091,9 +3091,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="60"/>
-      <c r="B32" s="67"/>
+    <row r="32" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A32" s="66"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
@@ -3110,9 +3110,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="60"/>
-      <c r="B33" s="67"/>
+    <row r="33" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A33" s="66"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="3" t="s">
         <v>63</v>
       </c>
@@ -3129,9 +3129,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="60"/>
-      <c r="B34" s="67"/>
+    <row r="34" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A34" s="66"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="3" t="s">
         <v>71</v>
       </c>
@@ -3148,9 +3148,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="60"/>
-      <c r="B35" s="67"/>
+    <row r="35" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A35" s="66"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="3" t="s">
         <v>73</v>
       </c>
@@ -3167,9 +3167,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="24">
-      <c r="A36" s="60"/>
-      <c r="B36" s="67"/>
+    <row r="36" spans="1:7" ht="24" hidden="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="3" t="s">
         <v>547</v>
       </c>
@@ -3186,9 +3186,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="24">
-      <c r="A37" s="60"/>
-      <c r="B37" s="67"/>
+    <row r="37" spans="1:7" ht="24" hidden="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="3" t="s">
         <v>75</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:7" s="12" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="34"/>
@@ -3214,7 +3214,7 @@
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
+    <row r="39" spans="1:7" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -3237,11 +3237,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A40" s="60" t="s">
+    <row r="40" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A40" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="67" t="s">
         <v>79</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -3260,9 +3260,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A41" s="60"/>
-      <c r="B41" s="61"/>
+    <row r="41" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A41" s="66"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="3" t="s">
         <v>14</v>
       </c>
@@ -3279,9 +3279,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="48">
-      <c r="A42" s="60"/>
-      <c r="B42" s="61"/>
+    <row r="42" spans="1:7" ht="48" hidden="1">
+      <c r="A42" s="66"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="3" t="s">
         <v>81</v>
       </c>
@@ -3298,9 +3298,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A43" s="60"/>
-      <c r="B43" s="61"/>
+    <row r="43" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="3" t="s">
         <v>85</v>
       </c>
@@ -3317,9 +3317,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A44" s="60"/>
-      <c r="B44" s="61"/>
+    <row r="44" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A44" s="66"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="3" t="s">
         <v>87</v>
       </c>
@@ -3336,9 +3336,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A45" s="60"/>
-      <c r="B45" s="61"/>
+    <row r="45" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A45" s="66"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="3" t="s">
         <v>89</v>
       </c>
@@ -3355,9 +3355,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A46" s="60"/>
-      <c r="B46" s="61"/>
+    <row r="46" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A46" s="66"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="3" t="s">
         <v>91</v>
       </c>
@@ -3374,9 +3374,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A47" s="60"/>
-      <c r="B47" s="61"/>
+    <row r="47" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A47" s="66"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="3" t="s">
         <v>73</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1">
+    <row r="48" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="33"/>
@@ -3402,7 +3402,7 @@
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -3425,11 +3425,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A50" s="60" t="s">
+    <row r="50" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A50" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="67" t="s">
         <v>96</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -3448,9 +3448,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="24">
-      <c r="A51" s="60"/>
-      <c r="B51" s="61"/>
+    <row r="51" spans="1:7" ht="24" hidden="1">
+      <c r="A51" s="66"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="3" t="s">
         <v>99</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="14" customFormat="1" ht="15.75" customHeight="1">
+    <row r="52" spans="1:7" s="14" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="33"/>
@@ -3476,7 +3476,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -3499,11 +3499,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1">
-      <c r="A54" s="60" t="s">
+    <row r="54" spans="1:7" ht="18" hidden="1" customHeight="1">
+      <c r="A54" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="67" t="s">
         <v>103</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -3522,9 +3522,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="24" customHeight="1">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61"/>
+    <row r="55" spans="1:7" ht="24" hidden="1" customHeight="1">
+      <c r="A55" s="66"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="3" t="s">
         <v>99</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1">
+    <row r="56" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="33"/>
@@ -3550,7 +3550,7 @@
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3573,11 +3573,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A58" s="60" t="s">
+    <row r="58" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A58" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="67" t="s">
         <v>110</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -3596,9 +3596,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="36">
-      <c r="A59" s="60"/>
-      <c r="B59" s="61"/>
+    <row r="59" spans="1:7" ht="36" hidden="1">
+      <c r="A59" s="66"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="3" t="s">
         <v>99</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="14" customFormat="1" ht="15.75" customHeight="1">
+    <row r="60" spans="1:7" s="14" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="33"/>
@@ -3624,7 +3624,7 @@
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -3647,11 +3647,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14" customHeight="1">
-      <c r="A62" s="68" t="s">
+    <row r="62" spans="1:7" ht="14" hidden="1" customHeight="1">
+      <c r="A62" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="71" t="s">
+      <c r="B62" s="63" t="s">
         <v>116</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -3670,9 +3670,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="36">
-      <c r="A63" s="69"/>
-      <c r="B63" s="72"/>
+    <row r="63" spans="1:7" ht="36" hidden="1">
+      <c r="A63" s="61"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="3" t="s">
         <v>63</v>
       </c>
@@ -3689,9 +3689,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14" customHeight="1">
-      <c r="A64" s="70"/>
-      <c r="B64" s="73"/>
+    <row r="64" spans="1:7" ht="14" hidden="1" customHeight="1">
+      <c r="A64" s="62"/>
+      <c r="B64" s="65"/>
       <c r="C64" s="3" t="s">
         <v>120</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1">
+    <row r="65" spans="1:7" s="12" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A65" s="9"/>
       <c r="B65" s="10"/>
       <c r="C65" s="34"/>
@@ -3717,7 +3717,7 @@
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1">
+    <row r="66" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -3740,11 +3740,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A67" s="60" t="s">
+    <row r="67" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A67" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="67" t="s">
         <v>124</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -3763,9 +3763,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A68" s="60"/>
-      <c r="B68" s="61"/>
+    <row r="68" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A68" s="66"/>
+      <c r="B68" s="67"/>
       <c r="C68" s="3" t="s">
         <v>14</v>
       </c>
@@ -3782,9 +3782,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A69" s="60"/>
-      <c r="B69" s="61"/>
+    <row r="69" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A69" s="66"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="3" t="s">
         <v>63</v>
       </c>
@@ -3801,9 +3801,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="60"/>
-      <c r="B70" s="61"/>
+    <row r="70" spans="1:7" hidden="1">
+      <c r="A70" s="66"/>
+      <c r="B70" s="67"/>
       <c r="C70" s="3" t="s">
         <v>73</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1">
+    <row r="71" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="33"/>
@@ -3829,7 +3829,7 @@
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1">
+    <row r="72" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -3852,11 +3852,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A73" s="60" t="s">
+    <row r="73" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A73" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="61" t="s">
+      <c r="B73" s="67" t="s">
         <v>129</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -3875,9 +3875,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A74" s="60"/>
-      <c r="B74" s="61"/>
+    <row r="74" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A74" s="66"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="3" t="s">
         <v>14</v>
       </c>
@@ -3894,9 +3894,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A75" s="60"/>
-      <c r="B75" s="61"/>
+    <row r="75" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A75" s="66"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="3" t="s">
         <v>131</v>
       </c>
@@ -3913,9 +3913,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A76" s="60"/>
-      <c r="B76" s="61"/>
+    <row r="76" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A76" s="66"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="3" t="s">
         <v>133</v>
       </c>
@@ -3932,8 +3932,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1">
+    <row r="77" spans="1:7" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="78" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3956,11 +3956,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A79" s="60" t="s">
+    <row r="79" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A79" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="B79" s="61" t="s">
+      <c r="B79" s="67" t="s">
         <v>136</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -3979,9 +3979,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A80" s="60"/>
-      <c r="B80" s="61"/>
+    <row r="80" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A80" s="66"/>
+      <c r="B80" s="67"/>
       <c r="C80" s="3" t="s">
         <v>14</v>
       </c>
@@ -3998,9 +3998,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A81" s="60"/>
-      <c r="B81" s="61"/>
+    <row r="81" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A81" s="66"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="3" t="s">
         <v>73</v>
       </c>
@@ -4017,9 +4017,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A82" s="60"/>
-      <c r="B82" s="61"/>
+    <row r="82" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A82" s="66"/>
+      <c r="B82" s="67"/>
       <c r="C82" s="3" t="s">
         <v>140</v>
       </c>
@@ -4036,9 +4036,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A83" s="60"/>
-      <c r="B83" s="61"/>
+    <row r="83" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A83" s="66"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="3" t="s">
         <v>20</v>
       </c>
@@ -4055,9 +4055,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A84" s="60"/>
-      <c r="B84" s="61"/>
+    <row r="84" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A84" s="66"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="3" t="s">
         <v>26</v>
       </c>
@@ -4074,9 +4074,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A85" s="60"/>
-      <c r="B85" s="61"/>
+    <row r="85" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A85" s="66"/>
+      <c r="B85" s="67"/>
       <c r="C85" s="3" t="s">
         <v>23</v>
       </c>
@@ -4093,9 +4093,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A86" s="60"/>
-      <c r="B86" s="61"/>
+    <row r="86" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A86" s="66"/>
+      <c r="B86" s="67"/>
       <c r="C86" s="3" t="s">
         <v>536</v>
       </c>
@@ -4112,8 +4112,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="88" spans="1:7">
+    <row r="87" spans="1:7" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -4136,11 +4136,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1">
-      <c r="A89" s="60" t="s">
+    <row r="89" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A89" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="B89" s="61" t="s">
+      <c r="B89" s="67" t="s">
         <v>148</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -4159,9 +4159,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1">
-      <c r="A90" s="60"/>
-      <c r="B90" s="61"/>
+    <row r="90" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A90" s="66"/>
+      <c r="B90" s="67"/>
       <c r="C90" s="3" t="s">
         <v>14</v>
       </c>
@@ -4178,9 +4178,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1">
-      <c r="A91" s="60"/>
-      <c r="B91" s="61"/>
+    <row r="91" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A91" s="66"/>
+      <c r="B91" s="67"/>
       <c r="C91" s="3" t="s">
         <v>26</v>
       </c>
@@ -4197,9 +4197,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1">
-      <c r="A92" s="60"/>
-      <c r="B92" s="61"/>
+    <row r="92" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A92" s="66"/>
+      <c r="B92" s="67"/>
       <c r="C92" s="3" t="s">
         <v>20</v>
       </c>
@@ -4216,9 +4216,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1">
-      <c r="A93" s="60"/>
-      <c r="B93" s="61"/>
+    <row r="93" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A93" s="66"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="3" t="s">
         <v>23</v>
       </c>
@@ -4235,9 +4235,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A94" s="60"/>
-      <c r="B94" s="61"/>
+    <row r="94" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A94" s="66"/>
+      <c r="B94" s="67"/>
       <c r="C94" s="3" t="s">
         <v>91</v>
       </c>
@@ -4254,9 +4254,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A95" s="60"/>
-      <c r="B95" s="61"/>
+    <row r="95" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A95" s="66"/>
+      <c r="B95" s="67"/>
       <c r="C95" s="3" t="s">
         <v>73</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1">
+    <row r="96" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="20"/>
@@ -4282,7 +4282,7 @@
       <c r="F96" s="49"/>
       <c r="G96" s="50"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -4305,11 +4305,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="60" t="s">
+    <row r="98" spans="1:7" hidden="1">
+      <c r="A98" s="66" t="s">
         <v>484</v>
       </c>
-      <c r="B98" s="61" t="s">
+      <c r="B98" s="67" t="s">
         <v>485</v>
       </c>
       <c r="C98" s="27" t="s">
@@ -4328,9 +4328,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="36">
-      <c r="A99" s="60"/>
-      <c r="B99" s="61"/>
+    <row r="99" spans="1:7" ht="36" hidden="1">
+      <c r="A99" s="66"/>
+      <c r="B99" s="67"/>
       <c r="C99" s="27" t="s">
         <v>486</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1">
+    <row r="100" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="20"/>
@@ -4356,7 +4356,7 @@
       <c r="F100" s="49"/>
       <c r="G100" s="50"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -4379,11 +4379,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="60" t="s">
+    <row r="102" spans="1:7" hidden="1">
+      <c r="A102" s="66" t="s">
         <v>493</v>
       </c>
-      <c r="B102" s="61" t="s">
+      <c r="B102" s="67" t="s">
         <v>494</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -4402,9 +4402,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="60"/>
-      <c r="B103" s="61"/>
+    <row r="103" spans="1:7" hidden="1">
+      <c r="A103" s="66"/>
+      <c r="B103" s="67"/>
       <c r="C103" s="3" t="s">
         <v>429</v>
       </c>
@@ -4421,9 +4421,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="48">
-      <c r="A104" s="60"/>
-      <c r="B104" s="61"/>
+    <row r="104" spans="1:7" ht="48" hidden="1">
+      <c r="A104" s="66"/>
+      <c r="B104" s="67"/>
       <c r="C104" s="3" t="s">
         <v>497</v>
       </c>
@@ -4440,9 +4440,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="48">
-      <c r="A105" s="60"/>
-      <c r="B105" s="61"/>
+    <row r="105" spans="1:7" ht="48" hidden="1">
+      <c r="A105" s="66"/>
+      <c r="B105" s="67"/>
       <c r="C105" s="3" t="s">
         <v>499</v>
       </c>
@@ -4459,9 +4459,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="48">
-      <c r="A106" s="60"/>
-      <c r="B106" s="61"/>
+    <row r="106" spans="1:7" ht="48" hidden="1">
+      <c r="A106" s="66"/>
+      <c r="B106" s="67"/>
       <c r="C106" s="3" t="s">
         <v>501</v>
       </c>
@@ -4478,7 +4478,8 @@
         <v>480</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="107" spans="1:7" hidden="1"/>
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -4501,11 +4502,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="66" t="s">
+    <row r="109" spans="1:7" hidden="1">
+      <c r="A109" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="B109" s="67" t="s">
+      <c r="B109" s="69" t="s">
         <v>159</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -4524,9 +4525,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="66"/>
-      <c r="B110" s="67"/>
+    <row r="110" spans="1:7" hidden="1">
+      <c r="A110" s="68"/>
+      <c r="B110" s="69"/>
       <c r="C110" s="7" t="s">
         <v>36</v>
       </c>
@@ -4543,9 +4544,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="66"/>
-      <c r="B111" s="67"/>
+    <row r="111" spans="1:7" hidden="1">
+      <c r="A111" s="68"/>
+      <c r="B111" s="69"/>
       <c r="C111" s="7" t="s">
         <v>39</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="20">
+    <row r="112" spans="1:7" ht="20" hidden="1">
       <c r="A112" s="9"/>
       <c r="B112" s="10"/>
       <c r="C112" s="49"/>
@@ -4571,7 +4572,7 @@
       <c r="F112" s="51"/>
       <c r="G112" s="49"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" hidden="1">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -4594,11 +4595,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="24">
-      <c r="A114" s="77" t="s">
+    <row r="114" spans="1:16" ht="24" hidden="1">
+      <c r="A114" s="73" t="s">
         <v>526</v>
       </c>
-      <c r="B114" s="74" t="s">
+      <c r="B114" s="70" t="s">
         <v>531</v>
       </c>
       <c r="C114" s="7" t="s">
@@ -4617,9 +4618,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="24">
-      <c r="A115" s="78"/>
-      <c r="B115" s="75"/>
+    <row r="115" spans="1:16" ht="24" hidden="1">
+      <c r="A115" s="74"/>
+      <c r="B115" s="71"/>
       <c r="C115" s="7" t="s">
         <v>566</v>
       </c>
@@ -4636,9 +4637,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" customHeight="1">
-      <c r="A116" s="79"/>
-      <c r="B116" s="76"/>
+    <row r="116" spans="1:16" ht="15" hidden="1" customHeight="1">
+      <c r="A116" s="75"/>
+      <c r="B116" s="72"/>
       <c r="C116" s="7" t="s">
         <v>527</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="117" spans="1:16" s="14" customFormat="1" ht="15.75" customHeight="1">
+    <row r="117" spans="1:16" s="14" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="30"/>
       <c r="B117" s="30"/>
       <c r="C117" s="30"/>
@@ -4673,7 +4674,7 @@
       <c r="O117"/>
       <c r="P117"/>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" hidden="1">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -4696,11 +4697,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" customHeight="1">
-      <c r="A119" s="60" t="s">
+    <row r="119" spans="1:16" ht="15" hidden="1" customHeight="1">
+      <c r="A119" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="B119" s="61" t="s">
+      <c r="B119" s="67" t="s">
         <v>167</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -4719,9 +4720,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" customHeight="1">
-      <c r="A120" s="60"/>
-      <c r="B120" s="61"/>
+    <row r="120" spans="1:16" ht="15" hidden="1" customHeight="1">
+      <c r="A120" s="66"/>
+      <c r="B120" s="67"/>
       <c r="C120" s="3" t="s">
         <v>14</v>
       </c>
@@ -4738,9 +4739,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
-      <c r="A121" s="60"/>
-      <c r="B121" s="61"/>
+    <row r="121" spans="1:16" hidden="1">
+      <c r="A121" s="66"/>
+      <c r="B121" s="67"/>
       <c r="C121" s="3" t="s">
         <v>170</v>
       </c>
@@ -4757,9 +4758,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="36">
-      <c r="A122" s="60"/>
-      <c r="B122" s="61"/>
+    <row r="122" spans="1:16" ht="36" hidden="1">
+      <c r="A122" s="66"/>
+      <c r="B122" s="67"/>
       <c r="C122" s="3" t="s">
         <v>172</v>
       </c>
@@ -4776,9 +4777,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
-      <c r="A123" s="60"/>
-      <c r="B123" s="61"/>
+    <row r="123" spans="1:16" hidden="1">
+      <c r="A123" s="66"/>
+      <c r="B123" s="67"/>
       <c r="C123" s="3" t="s">
         <v>175</v>
       </c>
@@ -4795,9 +4796,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
-      <c r="A124" s="60"/>
-      <c r="B124" s="61"/>
+    <row r="124" spans="1:16" hidden="1">
+      <c r="A124" s="66"/>
+      <c r="B124" s="67"/>
       <c r="C124" s="3" t="s">
         <v>177</v>
       </c>
@@ -4814,9 +4815,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15" customHeight="1">
-      <c r="A125" s="60"/>
-      <c r="B125" s="61"/>
+    <row r="125" spans="1:16" ht="15" hidden="1" customHeight="1">
+      <c r="A125" s="66"/>
+      <c r="B125" s="67"/>
       <c r="C125" s="13" t="s">
         <v>180</v>
       </c>
@@ -4833,9 +4834,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15" customHeight="1">
-      <c r="A126" s="60"/>
-      <c r="B126" s="61"/>
+    <row r="126" spans="1:16" ht="15" hidden="1" customHeight="1">
+      <c r="A126" s="66"/>
+      <c r="B126" s="67"/>
       <c r="C126" s="3" t="s">
         <v>182</v>
       </c>
@@ -4852,9 +4853,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="24">
-      <c r="A127" s="60"/>
-      <c r="B127" s="61"/>
+    <row r="127" spans="1:16" ht="24" hidden="1">
+      <c r="A127" s="66"/>
+      <c r="B127" s="67"/>
       <c r="C127" s="3" t="s">
         <v>184</v>
       </c>
@@ -4871,9 +4872,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A128" s="60"/>
-      <c r="B128" s="61"/>
+    <row r="128" spans="1:16" ht="26.25" hidden="1" customHeight="1">
+      <c r="A128" s="66"/>
+      <c r="B128" s="67"/>
       <c r="C128" s="3" t="s">
         <v>187</v>
       </c>
@@ -4890,9 +4891,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="60"/>
-      <c r="B129" s="61"/>
+    <row r="129" spans="1:7" hidden="1">
+      <c r="A129" s="66"/>
+      <c r="B129" s="67"/>
       <c r="C129" s="3" t="s">
         <v>190</v>
       </c>
@@ -4909,9 +4910,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="24">
-      <c r="A130" s="60"/>
-      <c r="B130" s="61"/>
+    <row r="130" spans="1:7" ht="24" hidden="1">
+      <c r="A130" s="66"/>
+      <c r="B130" s="67"/>
       <c r="C130" s="3" t="s">
         <v>193</v>
       </c>
@@ -4928,9 +4929,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="60"/>
-      <c r="B131" s="61"/>
+    <row r="131" spans="1:7" hidden="1">
+      <c r="A131" s="66"/>
+      <c r="B131" s="67"/>
       <c r="C131" s="3" t="s">
         <v>195</v>
       </c>
@@ -4947,9 +4948,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="60"/>
-      <c r="B132" s="61"/>
+    <row r="132" spans="1:7" hidden="1">
+      <c r="A132" s="66"/>
+      <c r="B132" s="67"/>
       <c r="C132" s="3" t="s">
         <v>197</v>
       </c>
@@ -4966,9 +4967,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="60"/>
-      <c r="B133" s="61"/>
+    <row r="133" spans="1:7" hidden="1">
+      <c r="A133" s="66"/>
+      <c r="B133" s="67"/>
       <c r="C133" s="3" t="s">
         <v>73</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="20">
+    <row r="134" spans="1:7" ht="20" hidden="1">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="33"/>
@@ -4994,7 +4995,7 @@
       <c r="F134" s="42"/>
       <c r="G134" s="33"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" hidden="1">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -5017,11 +5018,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="66" t="s">
+    <row r="136" spans="1:7" hidden="1">
+      <c r="A136" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="B136" s="67" t="s">
+      <c r="B136" s="69" t="s">
         <v>201</v>
       </c>
       <c r="C136" s="7" t="s">
@@ -5040,9 +5041,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A137" s="66"/>
-      <c r="B137" s="67"/>
+    <row r="137" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A137" s="68"/>
+      <c r="B137" s="69"/>
       <c r="C137" s="7" t="s">
         <v>36</v>
       </c>
@@ -5059,9 +5060,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A138" s="66"/>
-      <c r="B138" s="67"/>
+    <row r="138" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A138" s="68"/>
+      <c r="B138" s="69"/>
       <c r="C138" s="7" t="s">
         <v>39</v>
       </c>
@@ -5078,9 +5079,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="66"/>
-      <c r="B139" s="67"/>
+    <row r="139" spans="1:7" hidden="1">
+      <c r="A139" s="68"/>
+      <c r="B139" s="69"/>
       <c r="C139" s="7" t="s">
         <v>42</v>
       </c>
@@ -5097,9 +5098,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A140" s="66"/>
-      <c r="B140" s="67"/>
+    <row r="140" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A140" s="68"/>
+      <c r="B140" s="69"/>
       <c r="C140" s="7" t="s">
         <v>23</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="20">
+    <row r="141" spans="1:7" ht="20" hidden="1">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="33"/>
@@ -5125,7 +5126,7 @@
       <c r="F141" s="42"/>
       <c r="G141" s="33"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
@@ -5148,11 +5149,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="66" t="s">
+    <row r="143" spans="1:7" hidden="1">
+      <c r="A143" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="B143" s="67" t="s">
+      <c r="B143" s="69" t="s">
         <v>212</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -5171,9 +5172,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="66"/>
-      <c r="B144" s="67"/>
+    <row r="144" spans="1:7" hidden="1">
+      <c r="A144" s="68"/>
+      <c r="B144" s="69"/>
       <c r="C144" s="7" t="s">
         <v>215</v>
       </c>
@@ -5190,9 +5191,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="66"/>
-      <c r="B145" s="67"/>
+    <row r="145" spans="1:7" hidden="1">
+      <c r="A145" s="68"/>
+      <c r="B145" s="69"/>
       <c r="C145" s="7" t="s">
         <v>218</v>
       </c>
@@ -5209,9 +5210,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="66"/>
-      <c r="B146" s="67"/>
+    <row r="146" spans="1:7" hidden="1">
+      <c r="A146" s="68"/>
+      <c r="B146" s="69"/>
       <c r="C146" s="7" t="s">
         <v>23</v>
       </c>
@@ -5228,9 +5229,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="66"/>
-      <c r="B147" s="67"/>
+    <row r="147" spans="1:7" hidden="1">
+      <c r="A147" s="68"/>
+      <c r="B147" s="69"/>
       <c r="C147" s="7" t="s">
         <v>222</v>
       </c>
@@ -5247,9 +5248,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="66"/>
-      <c r="B148" s="67"/>
+    <row r="148" spans="1:7" hidden="1">
+      <c r="A148" s="68"/>
+      <c r="B148" s="69"/>
       <c r="C148" s="7" t="s">
         <v>225</v>
       </c>
@@ -5266,9 +5267,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="66"/>
-      <c r="B149" s="67"/>
+    <row r="149" spans="1:7" hidden="1">
+      <c r="A149" s="68"/>
+      <c r="B149" s="69"/>
       <c r="C149" s="7" t="s">
         <v>227</v>
       </c>
@@ -5285,9 +5286,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="66"/>
-      <c r="B150" s="67"/>
+    <row r="150" spans="1:7" hidden="1">
+      <c r="A150" s="68"/>
+      <c r="B150" s="69"/>
       <c r="C150" s="7" t="s">
         <v>231</v>
       </c>
@@ -5304,9 +5305,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="66"/>
-      <c r="B151" s="67"/>
+    <row r="151" spans="1:7" hidden="1">
+      <c r="A151" s="68"/>
+      <c r="B151" s="69"/>
       <c r="C151" s="7" t="s">
         <v>234</v>
       </c>
@@ -5323,7 +5324,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="20">
+    <row r="152" spans="1:7" ht="20" hidden="1">
       <c r="A152" s="9"/>
       <c r="B152" s="10"/>
       <c r="C152" s="34"/>
@@ -5332,7 +5333,7 @@
       <c r="F152" s="34"/>
       <c r="G152" s="34"/>
     </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1">
+    <row r="153" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>0</v>
       </c>
@@ -5355,11 +5356,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A154" s="60" t="s">
+    <row r="154" spans="1:7" ht="24.75" hidden="1" customHeight="1">
+      <c r="A154" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="B154" s="61" t="s">
+      <c r="B154" s="67" t="s">
         <v>239</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -5378,9 +5379,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A155" s="60"/>
-      <c r="B155" s="61"/>
+    <row r="155" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A155" s="66"/>
+      <c r="B155" s="67"/>
       <c r="C155" s="3" t="s">
         <v>242</v>
       </c>
@@ -5397,7 +5398,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1">
+    <row r="156" spans="1:7" hidden="1"/>
+    <row r="157" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>0</v>
       </c>
@@ -5420,11 +5422,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="60" t="s">
+    <row r="158" spans="1:7" hidden="1">
+      <c r="A158" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="B158" s="61" t="s">
+      <c r="B158" s="67" t="s">
         <v>246</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -5443,9 +5445,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A159" s="60"/>
-      <c r="B159" s="61"/>
+    <row r="159" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A159" s="66"/>
+      <c r="B159" s="67"/>
       <c r="C159" s="3" t="s">
         <v>248</v>
       </c>
@@ -5462,7 +5464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="14" customFormat="1" ht="20">
+    <row r="160" spans="1:7" s="14" customFormat="1" ht="20" hidden="1">
       <c r="A160" s="5"/>
       <c r="B160" s="6"/>
       <c r="C160" s="33"/>
@@ -5471,7 +5473,7 @@
       <c r="F160" s="42"/>
       <c r="G160" s="33"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" hidden="1">
       <c r="A161" s="1" t="s">
         <v>0</v>
       </c>
@@ -5494,7 +5496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="42">
+    <row r="162" spans="1:7" ht="42" hidden="1">
       <c r="A162" s="19" t="s">
         <v>251</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="20">
+    <row r="163" spans="1:7" ht="20" hidden="1">
       <c r="A163" s="5"/>
       <c r="B163" s="6"/>
       <c r="C163" s="33"/>
@@ -5526,7 +5528,7 @@
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" hidden="1">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
@@ -5549,11 +5551,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A165" s="60" t="s">
+    <row r="165" spans="1:7" ht="20.25" hidden="1" customHeight="1">
+      <c r="A165" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="B165" s="61" t="s">
+      <c r="B165" s="67" t="s">
         <v>256</v>
       </c>
       <c r="C165" s="3" t="s">
@@ -5572,9 +5574,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="60"/>
-      <c r="B166" s="61"/>
+    <row r="166" spans="1:7" hidden="1">
+      <c r="A166" s="66"/>
+      <c r="B166" s="67"/>
       <c r="C166" s="3" t="s">
         <v>99</v>
       </c>
@@ -5591,7 +5593,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="21" customHeight="1">
+    <row r="167" spans="1:7" ht="21" hidden="1" customHeight="1">
       <c r="A167" s="5"/>
       <c r="B167" s="6"/>
       <c r="C167" s="33"/>
@@ -5600,7 +5602,7 @@
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" hidden="1">
       <c r="A168" s="1" t="s">
         <v>0</v>
       </c>
@@ -5623,11 +5625,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="60" t="s">
+    <row r="169" spans="1:7" hidden="1">
+      <c r="A169" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="B169" s="61" t="s">
+      <c r="B169" s="67" t="s">
         <v>261</v>
       </c>
       <c r="C169" s="3" t="s">
@@ -5646,9 +5648,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="60"/>
-      <c r="B170" s="61"/>
+    <row r="170" spans="1:7" hidden="1">
+      <c r="A170" s="66"/>
+      <c r="B170" s="67"/>
       <c r="C170" s="3" t="s">
         <v>14</v>
       </c>
@@ -5665,9 +5667,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="60"/>
-      <c r="B171" s="61"/>
+    <row r="171" spans="1:7" hidden="1">
+      <c r="A171" s="66"/>
+      <c r="B171" s="67"/>
       <c r="C171" s="3" t="s">
         <v>263</v>
       </c>
@@ -5684,9 +5686,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="60"/>
-      <c r="B172" s="61"/>
+    <row r="172" spans="1:7" hidden="1">
+      <c r="A172" s="66"/>
+      <c r="B172" s="67"/>
       <c r="C172" s="3" t="s">
         <v>265</v>
       </c>
@@ -5703,7 +5705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="173" spans="1:7" s="14" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A173" s="5"/>
       <c r="B173" s="6"/>
       <c r="C173" s="33"/>
@@ -5712,7 +5714,7 @@
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" hidden="1">
       <c r="A174" s="1" t="s">
         <v>0</v>
       </c>
@@ -5735,11 +5737,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="21" customHeight="1">
-      <c r="A175" s="60" t="s">
+    <row r="175" spans="1:7" ht="21" hidden="1" customHeight="1">
+      <c r="A175" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="B175" s="61" t="s">
+      <c r="B175" s="67" t="s">
         <v>268</v>
       </c>
       <c r="C175" s="3" t="s">
@@ -5758,9 +5760,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="60"/>
-      <c r="B176" s="61"/>
+    <row r="176" spans="1:7" hidden="1">
+      <c r="A176" s="66"/>
+      <c r="B176" s="67"/>
       <c r="C176" s="3" t="s">
         <v>99</v>
       </c>
@@ -5777,7 +5779,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="21" customHeight="1">
+    <row r="177" spans="1:7" ht="21" hidden="1" customHeight="1">
       <c r="A177" s="5"/>
       <c r="B177" s="6"/>
       <c r="C177" s="33"/>
@@ -5786,7 +5788,7 @@
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" hidden="1">
       <c r="A178" s="1" t="s">
         <v>0</v>
       </c>
@@ -5809,11 +5811,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="21" customHeight="1">
-      <c r="A179" s="60" t="s">
+    <row r="179" spans="1:7" ht="21" hidden="1" customHeight="1">
+      <c r="A179" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="B179" s="61" t="s">
+      <c r="B179" s="67" t="s">
         <v>272</v>
       </c>
       <c r="C179" s="3" t="s">
@@ -5832,9 +5834,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="60"/>
-      <c r="B180" s="61"/>
+    <row r="180" spans="1:7" hidden="1">
+      <c r="A180" s="66"/>
+      <c r="B180" s="67"/>
       <c r="C180" s="3" t="s">
         <v>99</v>
       </c>
@@ -5851,8 +5853,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="21" customHeight="1"/>
-    <row r="182" spans="1:7">
+    <row r="181" spans="1:7" ht="21" hidden="1" customHeight="1"/>
+    <row r="182" spans="1:7" hidden="1">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
@@ -5875,11 +5877,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="60" t="s">
+    <row r="183" spans="1:7" hidden="1">
+      <c r="A183" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="B183" s="61" t="s">
+      <c r="B183" s="67" t="s">
         <v>276</v>
       </c>
       <c r="C183" s="3" t="s">
@@ -5898,9 +5900,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="60"/>
-      <c r="B184" s="61"/>
+    <row r="184" spans="1:7" hidden="1">
+      <c r="A184" s="66"/>
+      <c r="B184" s="67"/>
       <c r="C184" s="3" t="s">
         <v>14</v>
       </c>
@@ -5917,9 +5919,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="60"/>
-      <c r="B185" s="61"/>
+    <row r="185" spans="1:7" hidden="1">
+      <c r="A185" s="66"/>
+      <c r="B185" s="67"/>
       <c r="C185" s="3" t="s">
         <v>278</v>
       </c>
@@ -5936,9 +5938,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="60"/>
-      <c r="B186" s="61"/>
+    <row r="186" spans="1:7" hidden="1">
+      <c r="A186" s="66"/>
+      <c r="B186" s="67"/>
       <c r="C186" s="3" t="s">
         <v>36</v>
       </c>
@@ -5955,9 +5957,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="60"/>
-      <c r="B187" s="61"/>
+    <row r="187" spans="1:7" hidden="1">
+      <c r="A187" s="66"/>
+      <c r="B187" s="67"/>
       <c r="C187" s="3" t="s">
         <v>39</v>
       </c>
@@ -5974,9 +5976,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="60"/>
-      <c r="B188" s="61"/>
+    <row r="188" spans="1:7" hidden="1">
+      <c r="A188" s="66"/>
+      <c r="B188" s="67"/>
       <c r="C188" s="3" t="s">
         <v>42</v>
       </c>
@@ -5993,9 +5995,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="60"/>
-      <c r="B189" s="61"/>
+    <row r="189" spans="1:7" hidden="1">
+      <c r="A189" s="66"/>
+      <c r="B189" s="67"/>
       <c r="C189" s="3" t="s">
         <v>73</v>
       </c>
@@ -6012,9 +6014,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="60"/>
-      <c r="B190" s="61"/>
+    <row r="190" spans="1:7" hidden="1">
+      <c r="A190" s="66"/>
+      <c r="B190" s="67"/>
       <c r="C190" s="3" t="s">
         <v>289</v>
       </c>
@@ -6031,9 +6033,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="60"/>
-      <c r="B191" s="61"/>
+    <row r="191" spans="1:7" hidden="1">
+      <c r="A191" s="66"/>
+      <c r="B191" s="67"/>
       <c r="C191" s="3" t="s">
         <v>292</v>
       </c>
@@ -6050,7 +6052,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="192" spans="1:7" s="14" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A192" s="5"/>
       <c r="B192" s="6"/>
       <c r="C192" s="33"/>
@@ -6059,7 +6061,7 @@
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" hidden="1">
       <c r="A193" s="1" t="s">
         <v>0</v>
       </c>
@@ -6082,11 +6084,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15" customHeight="1">
-      <c r="A194" s="60" t="s">
+    <row r="194" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A194" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="B194" s="61" t="s">
+      <c r="B194" s="67" t="s">
         <v>295</v>
       </c>
       <c r="C194" s="3" t="s">
@@ -6105,9 +6107,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15" customHeight="1">
-      <c r="A195" s="60"/>
-      <c r="B195" s="61"/>
+    <row r="195" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A195" s="66"/>
+      <c r="B195" s="67"/>
       <c r="C195" s="3" t="s">
         <v>14</v>
       </c>
@@ -6124,9 +6126,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15" customHeight="1">
-      <c r="A196" s="60"/>
-      <c r="B196" s="61"/>
+    <row r="196" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A196" s="66"/>
+      <c r="B196" s="67"/>
       <c r="C196" s="3" t="s">
         <v>63</v>
       </c>
@@ -6143,9 +6145,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="60"/>
-      <c r="B197" s="61"/>
+    <row r="197" spans="1:7" hidden="1">
+      <c r="A197" s="66"/>
+      <c r="B197" s="67"/>
       <c r="C197" s="3" t="s">
         <v>73</v>
       </c>
@@ -6162,8 +6164,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="22.5" customHeight="1"/>
-    <row r="199" spans="1:7">
+    <row r="198" spans="1:7" ht="22.5" hidden="1" customHeight="1"/>
+    <row r="199" spans="1:7" hidden="1">
       <c r="A199" s="1" t="s">
         <v>0</v>
       </c>
@@ -6186,11 +6188,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="60" t="s">
+    <row r="200" spans="1:7" hidden="1">
+      <c r="A200" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="B200" s="61" t="s">
+      <c r="B200" s="67" t="s">
         <v>301</v>
       </c>
       <c r="C200" s="3" t="s">
@@ -6209,9 +6211,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15" customHeight="1">
-      <c r="A201" s="60"/>
-      <c r="B201" s="61"/>
+    <row r="201" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A201" s="66"/>
+      <c r="B201" s="67"/>
       <c r="C201" s="3" t="s">
         <v>14</v>
       </c>
@@ -6228,9 +6230,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15" customHeight="1">
-      <c r="A202" s="60"/>
-      <c r="B202" s="61"/>
+    <row r="202" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A202" s="66"/>
+      <c r="B202" s="67"/>
       <c r="C202" s="3" t="s">
         <v>303</v>
       </c>
@@ -6247,9 +6249,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15" customHeight="1">
-      <c r="A203" s="60"/>
-      <c r="B203" s="61"/>
+    <row r="203" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A203" s="66"/>
+      <c r="B203" s="67"/>
       <c r="C203" s="3" t="s">
         <v>26</v>
       </c>
@@ -6266,9 +6268,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15" customHeight="1">
-      <c r="A204" s="60"/>
-      <c r="B204" s="61"/>
+    <row r="204" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A204" s="66"/>
+      <c r="B204" s="67"/>
       <c r="C204" s="3" t="s">
         <v>307</v>
       </c>
@@ -6285,9 +6287,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15" customHeight="1">
-      <c r="A205" s="60"/>
-      <c r="B205" s="61"/>
+    <row r="205" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A205" s="66"/>
+      <c r="B205" s="67"/>
       <c r="C205" s="3" t="s">
         <v>23</v>
       </c>
@@ -6304,9 +6306,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15" customHeight="1">
-      <c r="A206" s="60"/>
-      <c r="B206" s="61"/>
+    <row r="206" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A206" s="66"/>
+      <c r="B206" s="67"/>
       <c r="C206" s="3" t="s">
         <v>140</v>
       </c>
@@ -6323,9 +6325,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15" customHeight="1">
-      <c r="A207" s="60"/>
-      <c r="B207" s="61"/>
+    <row r="207" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A207" s="66"/>
+      <c r="B207" s="67"/>
       <c r="C207" s="3" t="s">
         <v>312</v>
       </c>
@@ -6342,9 +6344,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15" customHeight="1">
-      <c r="A208" s="60"/>
-      <c r="B208" s="61"/>
+    <row r="208" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A208" s="66"/>
+      <c r="B208" s="67"/>
       <c r="C208" s="3" t="s">
         <v>315</v>
       </c>
@@ -6361,7 +6363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="14" customFormat="1" ht="20">
+    <row r="209" spans="1:7" s="14" customFormat="1" ht="20" hidden="1">
       <c r="A209" s="5"/>
       <c r="B209" s="6"/>
       <c r="C209" s="33"/>
@@ -6394,10 +6396,10 @@
       </c>
     </row>
     <row r="211" spans="1:7" ht="15" customHeight="1">
-      <c r="A211" s="62" t="s">
+      <c r="A211" s="76" t="s">
         <v>318</v>
       </c>
-      <c r="B211" s="65" t="s">
+      <c r="B211" s="79" t="s">
         <v>319</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -6417,8 +6419,8 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="15" customHeight="1">
-      <c r="A212" s="63"/>
-      <c r="B212" s="63"/>
+      <c r="A212" s="77"/>
+      <c r="B212" s="77"/>
       <c r="C212" s="3" t="s">
         <v>34</v>
       </c>
@@ -6436,8 +6438,8 @@
       </c>
     </row>
     <row r="213" spans="1:7" ht="15" customHeight="1">
-      <c r="A213" s="63"/>
-      <c r="B213" s="63"/>
+      <c r="A213" s="77"/>
+      <c r="B213" s="77"/>
       <c r="C213" s="3" t="s">
         <v>20</v>
       </c>
@@ -6455,8 +6457,8 @@
       </c>
     </row>
     <row r="214" spans="1:7" ht="15" customHeight="1">
-      <c r="A214" s="63"/>
-      <c r="B214" s="63"/>
+      <c r="A214" s="77"/>
+      <c r="B214" s="77"/>
       <c r="C214" s="3" t="s">
         <v>23</v>
       </c>
@@ -6474,8 +6476,8 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="15" customHeight="1">
-      <c r="A215" s="63"/>
-      <c r="B215" s="63"/>
+      <c r="A215" s="77"/>
+      <c r="B215" s="77"/>
       <c r="C215" s="3" t="s">
         <v>26</v>
       </c>
@@ -6493,8 +6495,8 @@
       </c>
     </row>
     <row r="216" spans="1:7" ht="15" customHeight="1">
-      <c r="A216" s="63"/>
-      <c r="B216" s="63"/>
+      <c r="A216" s="77"/>
+      <c r="B216" s="77"/>
       <c r="C216" s="13" t="s">
         <v>326</v>
       </c>
@@ -6512,8 +6514,8 @@
       </c>
     </row>
     <row r="217" spans="1:7" ht="15" customHeight="1">
-      <c r="A217" s="63"/>
-      <c r="B217" s="63"/>
+      <c r="A217" s="77"/>
+      <c r="B217" s="77"/>
       <c r="C217" s="3" t="s">
         <v>99</v>
       </c>
@@ -6531,8 +6533,8 @@
       </c>
     </row>
     <row r="218" spans="1:7" ht="24">
-      <c r="A218" s="63"/>
-      <c r="B218" s="63"/>
+      <c r="A218" s="77"/>
+      <c r="B218" s="77"/>
       <c r="C218" s="3" t="s">
         <v>140</v>
       </c>
@@ -6550,8 +6552,8 @@
       </c>
     </row>
     <row r="219" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A219" s="63"/>
-      <c r="B219" s="63"/>
+      <c r="A219" s="77"/>
+      <c r="B219" s="77"/>
       <c r="C219" s="3" t="s">
         <v>332</v>
       </c>
@@ -6569,8 +6571,8 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A220" s="63"/>
-      <c r="B220" s="63"/>
+      <c r="A220" s="77"/>
+      <c r="B220" s="77"/>
       <c r="C220" s="3" t="s">
         <v>334</v>
       </c>
@@ -6588,8 +6590,8 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A221" s="64"/>
-      <c r="B221" s="64"/>
+      <c r="A221" s="78"/>
+      <c r="B221" s="78"/>
       <c r="C221" s="3" t="s">
         <v>518</v>
       </c>
@@ -6639,10 +6641,10 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A224" s="60" t="s">
+      <c r="A224" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="B224" s="61" t="s">
+      <c r="B224" s="67" t="s">
         <v>339</v>
       </c>
       <c r="C224" s="3" t="s">
@@ -6662,8 +6664,8 @@
       </c>
     </row>
     <row r="225" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A225" s="60"/>
-      <c r="B225" s="61"/>
+      <c r="A225" s="66"/>
+      <c r="B225" s="67"/>
       <c r="C225" s="3" t="s">
         <v>242</v>
       </c>
@@ -6681,8 +6683,8 @@
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="60"/>
-      <c r="B226" s="61"/>
+      <c r="A226" s="66"/>
+      <c r="B226" s="67"/>
       <c r="C226" s="3" t="s">
         <v>240</v>
       </c>
@@ -6708,7 +6710,7 @@
       <c r="F227" s="7"/>
       <c r="G227" s="7"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" hidden="1">
       <c r="A228" s="1" t="s">
         <v>0</v>
       </c>
@@ -6731,11 +6733,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A229" s="60" t="s">
+    <row r="229" spans="1:7" ht="27.75" hidden="1" customHeight="1">
+      <c r="A229" s="66" t="s">
         <v>478</v>
       </c>
-      <c r="B229" s="61" t="s">
+      <c r="B229" s="67" t="s">
         <v>479</v>
       </c>
       <c r="C229" s="27" t="s">
@@ -6754,9 +6756,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="60"/>
-      <c r="B230" s="61"/>
+    <row r="230" spans="1:7" hidden="1">
+      <c r="A230" s="66"/>
+      <c r="B230" s="67"/>
       <c r="C230" s="27" t="s">
         <v>481</v>
       </c>
@@ -6773,7 +6775,8 @@
         <v>480</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="231" spans="1:7" hidden="1"/>
+    <row r="232" spans="1:7" hidden="1">
       <c r="A232" s="1" t="s">
         <v>0</v>
       </c>
@@ -6796,11 +6799,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A233" s="60" t="s">
+    <row r="233" spans="1:7" ht="27.75" hidden="1" customHeight="1">
+      <c r="A233" s="66" t="s">
         <v>489</v>
       </c>
-      <c r="B233" s="61" t="s">
+      <c r="B233" s="67" t="s">
         <v>490</v>
       </c>
       <c r="C233" s="3" t="s">
@@ -6819,9 +6822,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A234" s="60"/>
-      <c r="B234" s="61"/>
+    <row r="234" spans="1:7" ht="28.5" hidden="1" customHeight="1">
+      <c r="A234" s="66"/>
+      <c r="B234" s="67"/>
       <c r="C234" s="3" t="s">
         <v>491</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15" customHeight="1">
+    <row r="235" spans="1:7" ht="15" hidden="1" customHeight="1">
       <c r="A235" s="47"/>
       <c r="B235" s="48"/>
       <c r="C235" s="3"/>
@@ -6847,7 +6850,7 @@
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:7" ht="15.75" customHeight="1">
+    <row r="236" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A236" s="1" t="s">
         <v>0</v>
       </c>
@@ -6870,11 +6873,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A237" s="60" t="s">
+    <row r="237" spans="1:7" ht="24.75" hidden="1" customHeight="1">
+      <c r="A237" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="B237" s="61" t="s">
+      <c r="B237" s="67" t="s">
         <v>341</v>
       </c>
       <c r="C237" s="3" t="s">
@@ -6893,9 +6896,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A238" s="60"/>
-      <c r="B238" s="61"/>
+    <row r="238" spans="1:7" ht="24.75" hidden="1" customHeight="1">
+      <c r="A238" s="66"/>
+      <c r="B238" s="67"/>
       <c r="C238" s="3" t="s">
         <v>248</v>
       </c>
@@ -6912,9 +6915,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A239" s="60"/>
-      <c r="B239" s="61"/>
+    <row r="239" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A239" s="66"/>
+      <c r="B239" s="67"/>
       <c r="C239" s="55" t="s">
         <v>240</v>
       </c>
@@ -6931,7 +6934,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="15.75" customHeight="1">
+    <row r="240" spans="1:7" hidden="1"/>
+    <row r="241" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A241" s="1" t="s">
         <v>0</v>
       </c>
@@ -6954,11 +6958,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A242" s="60" t="s">
+    <row r="242" spans="1:7" ht="24.75" hidden="1" customHeight="1">
+      <c r="A242" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="B242" s="61" t="s">
+      <c r="B242" s="67" t="s">
         <v>343</v>
       </c>
       <c r="C242" s="3" t="s">
@@ -6977,9 +6981,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
-      <c r="A243" s="60"/>
-      <c r="B243" s="61"/>
+    <row r="243" spans="1:7" hidden="1">
+      <c r="A243" s="66"/>
+      <c r="B243" s="67"/>
       <c r="C243" s="3" t="s">
         <v>344</v>
       </c>
@@ -6996,7 +7000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="20">
+    <row r="244" spans="1:7" ht="20" hidden="1">
       <c r="A244" s="53"/>
       <c r="B244" s="54"/>
       <c r="C244" s="3"/>
@@ -7005,7 +7009,7 @@
       <c r="F244" s="7"/>
       <c r="G244" s="7"/>
     </row>
-    <row r="245" spans="1:7" ht="15.75" customHeight="1">
+    <row r="245" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A245" s="1" t="s">
         <v>0</v>
       </c>
@@ -7028,11 +7032,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="26.5" customHeight="1">
-      <c r="A246" s="68" t="s">
+    <row r="246" spans="1:7" ht="26.5" hidden="1" customHeight="1">
+      <c r="A246" s="60" t="s">
         <v>541</v>
       </c>
-      <c r="B246" s="71" t="s">
+      <c r="B246" s="63" t="s">
         <v>542</v>
       </c>
       <c r="C246" s="3" t="s">
@@ -7051,9 +7055,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="21" customHeight="1">
-      <c r="A247" s="70"/>
-      <c r="B247" s="73"/>
+    <row r="247" spans="1:7" ht="21" hidden="1" customHeight="1">
+      <c r="A247" s="62"/>
+      <c r="B247" s="65"/>
       <c r="C247" s="27" t="s">
         <v>563</v>
       </c>
@@ -7070,7 +7074,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="20">
+    <row r="248" spans="1:7" ht="20" hidden="1">
       <c r="A248" s="5"/>
       <c r="B248" s="6"/>
       <c r="C248" s="20"/>
@@ -7079,7 +7083,7 @@
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
     </row>
-    <row r="249" spans="1:7" ht="15.75" customHeight="1">
+    <row r="249" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A249" s="1" t="s">
         <v>0</v>
       </c>
@@ -7102,11 +7106,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="26.5" customHeight="1">
-      <c r="A250" s="60" t="s">
+    <row r="250" spans="1:7" ht="26.5" hidden="1" customHeight="1">
+      <c r="A250" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="B250" s="61" t="s">
+      <c r="B250" s="67" t="s">
         <v>347</v>
       </c>
       <c r="C250" s="3" t="s">
@@ -7125,9 +7129,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="26.5" customHeight="1">
-      <c r="A251" s="60"/>
-      <c r="B251" s="61"/>
+    <row r="251" spans="1:7" ht="26.5" hidden="1" customHeight="1">
+      <c r="A251" s="66"/>
+      <c r="B251" s="67"/>
       <c r="C251" s="3" t="s">
         <v>566</v>
       </c>
@@ -7144,7 +7148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="15.75" customHeight="1">
+    <row r="252" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A252" s="5"/>
       <c r="B252" s="6"/>
       <c r="C252" s="33"/>
@@ -7153,7 +7157,7 @@
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" hidden="1">
       <c r="A253" s="1" t="s">
         <v>0</v>
       </c>
@@ -7176,11 +7180,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="60" t="s">
+    <row r="254" spans="1:7" hidden="1">
+      <c r="A254" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B254" s="61" t="s">
+      <c r="B254" s="67" t="s">
         <v>349</v>
       </c>
       <c r="C254" s="3" t="s">
@@ -7199,9 +7203,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="60"/>
-      <c r="B255" s="61"/>
+    <row r="255" spans="1:7" hidden="1">
+      <c r="A255" s="66"/>
+      <c r="B255" s="67"/>
       <c r="C255" s="3" t="s">
         <v>14</v>
       </c>
@@ -7218,9 +7222,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="60"/>
-      <c r="B256" s="61"/>
+    <row r="256" spans="1:7" hidden="1">
+      <c r="A256" s="66"/>
+      <c r="B256" s="67"/>
       <c r="C256" s="3" t="s">
         <v>242</v>
       </c>
@@ -7237,9 +7241,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="24">
-      <c r="A257" s="60"/>
-      <c r="B257" s="61"/>
+    <row r="257" spans="1:7" ht="24" hidden="1">
+      <c r="A257" s="66"/>
+      <c r="B257" s="67"/>
       <c r="C257" s="3" t="s">
         <v>278</v>
       </c>
@@ -7256,9 +7260,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="48">
-      <c r="A258" s="60"/>
-      <c r="B258" s="61"/>
+    <row r="258" spans="1:7" ht="48" hidden="1">
+      <c r="A258" s="66"/>
+      <c r="B258" s="67"/>
       <c r="C258" s="3" t="s">
         <v>34</v>
       </c>
@@ -7275,9 +7279,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="60"/>
-      <c r="B259" s="61"/>
+    <row r="259" spans="1:7" hidden="1">
+      <c r="A259" s="66"/>
+      <c r="B259" s="67"/>
       <c r="C259" s="3" t="s">
         <v>36</v>
       </c>
@@ -7294,9 +7298,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
-      <c r="A260" s="60"/>
-      <c r="B260" s="61"/>
+    <row r="260" spans="1:7" hidden="1">
+      <c r="A260" s="66"/>
+      <c r="B260" s="67"/>
       <c r="C260" s="3" t="s">
         <v>39</v>
       </c>
@@ -7313,9 +7317,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="60"/>
-      <c r="B261" s="61"/>
+    <row r="261" spans="1:7" hidden="1">
+      <c r="A261" s="66"/>
+      <c r="B261" s="67"/>
       <c r="C261" s="3" t="s">
         <v>42</v>
       </c>
@@ -7332,9 +7336,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="60"/>
-      <c r="B262" s="61"/>
+    <row r="262" spans="1:7" hidden="1">
+      <c r="A262" s="66"/>
+      <c r="B262" s="67"/>
       <c r="C262" s="3" t="s">
         <v>73</v>
       </c>
@@ -7351,7 +7355,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="20">
+    <row r="263" spans="1:7" ht="20" hidden="1">
       <c r="A263" s="22"/>
       <c r="B263" s="23"/>
       <c r="C263" s="36"/>
@@ -7360,7 +7364,7 @@
       <c r="F263" s="34"/>
       <c r="G263" s="36"/>
     </row>
-    <row r="264" spans="1:7" ht="15.75" customHeight="1">
+    <row r="264" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>0</v>
       </c>
@@ -7383,11 +7387,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="60" t="s">
+    <row r="265" spans="1:7" hidden="1">
+      <c r="A265" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="B265" s="61" t="s">
+      <c r="B265" s="67" t="s">
         <v>358</v>
       </c>
       <c r="C265" s="3" t="s">
@@ -7406,9 +7410,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A266" s="60"/>
-      <c r="B266" s="61"/>
+    <row r="266" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A266" s="66"/>
+      <c r="B266" s="67"/>
       <c r="C266" s="3" t="s">
         <v>14</v>
       </c>
@@ -7425,9 +7429,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A267" s="60"/>
-      <c r="B267" s="61"/>
+    <row r="267" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A267" s="66"/>
+      <c r="B267" s="67"/>
       <c r="C267" s="3" t="s">
         <v>36</v>
       </c>
@@ -7444,9 +7448,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A268" s="60"/>
-      <c r="B268" s="61"/>
+    <row r="268" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A268" s="66"/>
+      <c r="B268" s="67"/>
       <c r="C268" s="3" t="s">
         <v>39</v>
       </c>
@@ -7463,9 +7467,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A269" s="60"/>
-      <c r="B269" s="61"/>
+    <row r="269" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A269" s="66"/>
+      <c r="B269" s="67"/>
       <c r="C269" s="3" t="s">
         <v>364</v>
       </c>
@@ -7482,9 +7486,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="60"/>
-      <c r="B270" s="61"/>
+    <row r="270" spans="1:7" hidden="1">
+      <c r="A270" s="66"/>
+      <c r="B270" s="67"/>
       <c r="C270" s="3" t="s">
         <v>367</v>
       </c>
@@ -7501,7 +7505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="20">
+    <row r="271" spans="1:7" ht="20" hidden="1">
       <c r="A271" s="5"/>
       <c r="B271" s="6"/>
       <c r="C271" s="33"/>
@@ -7510,7 +7514,7 @@
       <c r="F271" s="33"/>
       <c r="G271" s="33"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" hidden="1">
       <c r="A272" s="1" t="s">
         <v>0</v>
       </c>
@@ -7533,11 +7537,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
-      <c r="A273" s="60" t="s">
+    <row r="273" spans="1:7" hidden="1">
+      <c r="A273" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="B273" s="61" t="s">
+      <c r="B273" s="67" t="s">
         <v>370</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -7556,9 +7560,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
-      <c r="A274" s="60"/>
-      <c r="B274" s="61"/>
+    <row r="274" spans="1:7" hidden="1">
+      <c r="A274" s="66"/>
+      <c r="B274" s="67"/>
       <c r="C274" s="3" t="s">
         <v>14</v>
       </c>
@@ -7575,9 +7579,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
-      <c r="A275" s="60"/>
-      <c r="B275" s="61"/>
+    <row r="275" spans="1:7" hidden="1">
+      <c r="A275" s="66"/>
+      <c r="B275" s="67"/>
       <c r="C275" s="3" t="s">
         <v>248</v>
       </c>
@@ -7594,9 +7598,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="24">
-      <c r="A276" s="60"/>
-      <c r="B276" s="61"/>
+    <row r="276" spans="1:7" ht="24" hidden="1">
+      <c r="A276" s="66"/>
+      <c r="B276" s="67"/>
       <c r="C276" s="3" t="s">
         <v>278</v>
       </c>
@@ -7613,9 +7617,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
-      <c r="A277" s="60"/>
-      <c r="B277" s="61"/>
+    <row r="277" spans="1:7" hidden="1">
+      <c r="A277" s="66"/>
+      <c r="B277" s="67"/>
       <c r="C277" s="3" t="s">
         <v>36</v>
       </c>
@@ -7632,9 +7636,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="60"/>
-      <c r="B278" s="61"/>
+    <row r="278" spans="1:7" hidden="1">
+      <c r="A278" s="66"/>
+      <c r="B278" s="67"/>
       <c r="C278" s="3" t="s">
         <v>39</v>
       </c>
@@ -7651,9 +7655,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="60"/>
-      <c r="B279" s="61"/>
+    <row r="279" spans="1:7" hidden="1">
+      <c r="A279" s="66"/>
+      <c r="B279" s="67"/>
       <c r="C279" s="3" t="s">
         <v>73</v>
       </c>
@@ -7670,9 +7674,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
-      <c r="A280" s="60"/>
-      <c r="B280" s="61"/>
+    <row r="280" spans="1:7" hidden="1">
+      <c r="A280" s="66"/>
+      <c r="B280" s="67"/>
       <c r="C280" s="3" t="s">
         <v>376</v>
       </c>
@@ -7689,7 +7693,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="20">
+    <row r="281" spans="1:7" ht="20" hidden="1">
       <c r="A281" s="5"/>
       <c r="B281" s="6"/>
       <c r="C281" s="33"/>
@@ -7698,7 +7702,7 @@
       <c r="F281" s="33"/>
       <c r="G281" s="33"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" hidden="1">
       <c r="A282" s="1" t="s">
         <v>0</v>
       </c>
@@ -7721,11 +7725,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
-      <c r="A283" s="60" t="s">
+    <row r="283" spans="1:7" hidden="1">
+      <c r="A283" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="B283" s="61" t="s">
+      <c r="B283" s="67" t="s">
         <v>380</v>
       </c>
       <c r="C283" s="3" t="s">
@@ -7744,9 +7748,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="60"/>
-      <c r="B284" s="61"/>
+    <row r="284" spans="1:7" hidden="1">
+      <c r="A284" s="66"/>
+      <c r="B284" s="67"/>
       <c r="C284" s="3" t="s">
         <v>344</v>
       </c>
@@ -7763,9 +7767,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A285" s="60"/>
-      <c r="B285" s="61"/>
+    <row r="285" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A285" s="66"/>
+      <c r="B285" s="67"/>
       <c r="C285" s="3" t="s">
         <v>14</v>
       </c>
@@ -7782,9 +7786,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A286" s="60"/>
-      <c r="B286" s="61"/>
+    <row r="286" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A286" s="66"/>
+      <c r="B286" s="67"/>
       <c r="C286" s="3" t="s">
         <v>36</v>
       </c>
@@ -7801,9 +7805,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A287" s="60"/>
-      <c r="B287" s="61"/>
+    <row r="287" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A287" s="66"/>
+      <c r="B287" s="67"/>
       <c r="C287" s="3" t="s">
         <v>39</v>
       </c>
@@ -7820,9 +7824,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="24">
-      <c r="A288" s="60"/>
-      <c r="B288" s="61"/>
+    <row r="288" spans="1:7" ht="24" hidden="1">
+      <c r="A288" s="66"/>
+      <c r="B288" s="67"/>
       <c r="C288" s="3" t="s">
         <v>42</v>
       </c>
@@ -7839,9 +7843,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A289" s="60"/>
-      <c r="B289" s="61"/>
+    <row r="289" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A289" s="66"/>
+      <c r="B289" s="67"/>
       <c r="C289" s="3" t="s">
         <v>23</v>
       </c>
@@ -7858,9 +7862,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="60"/>
-      <c r="B290" s="61"/>
+    <row r="290" spans="1:7" hidden="1">
+      <c r="A290" s="66"/>
+      <c r="B290" s="67"/>
       <c r="C290" s="3" t="s">
         <v>73</v>
       </c>
@@ -7877,7 +7881,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="20">
+    <row r="291" spans="1:7" ht="20" hidden="1">
       <c r="A291" s="5"/>
       <c r="B291" s="6"/>
       <c r="C291" s="33"/>
@@ -7886,7 +7890,7 @@
       <c r="F291" s="33"/>
       <c r="G291" s="33"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" hidden="1">
       <c r="A292" s="1" t="s">
         <v>0</v>
       </c>
@@ -7909,11 +7913,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="60" t="s">
+    <row r="293" spans="1:7" hidden="1">
+      <c r="A293" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="B293" s="61" t="s">
+      <c r="B293" s="67" t="s">
         <v>387</v>
       </c>
       <c r="C293" s="3" t="s">
@@ -7932,9 +7936,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="60"/>
-      <c r="B294" s="61"/>
+    <row r="294" spans="1:7" hidden="1">
+      <c r="A294" s="66"/>
+      <c r="B294" s="67"/>
       <c r="C294" s="3" t="s">
         <v>240</v>
       </c>
@@ -7951,9 +7955,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
-      <c r="A295" s="60"/>
-      <c r="B295" s="61"/>
+    <row r="295" spans="1:7" hidden="1">
+      <c r="A295" s="66"/>
+      <c r="B295" s="67"/>
       <c r="C295" s="3" t="s">
         <v>215</v>
       </c>
@@ -7970,9 +7974,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="60"/>
-      <c r="B296" s="61"/>
+    <row r="296" spans="1:7" hidden="1">
+      <c r="A296" s="66"/>
+      <c r="B296" s="67"/>
       <c r="C296" s="3" t="s">
         <v>218</v>
       </c>
@@ -7989,9 +7993,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
-      <c r="A297" s="60"/>
-      <c r="B297" s="61"/>
+    <row r="297" spans="1:7" hidden="1">
+      <c r="A297" s="66"/>
+      <c r="B297" s="67"/>
       <c r="C297" s="3" t="s">
         <v>23</v>
       </c>
@@ -8008,9 +8012,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="60"/>
-      <c r="B298" s="61"/>
+    <row r="298" spans="1:7" hidden="1">
+      <c r="A298" s="66"/>
+      <c r="B298" s="67"/>
       <c r="C298" s="3" t="s">
         <v>392</v>
       </c>
@@ -8027,7 +8031,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="20">
+    <row r="299" spans="1:7" ht="20" hidden="1">
       <c r="A299" s="5"/>
       <c r="B299" s="6"/>
       <c r="C299" s="33"/>
@@ -8036,7 +8040,7 @@
       <c r="F299" s="33"/>
       <c r="G299" s="33"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" hidden="1">
       <c r="A300" s="1" t="s">
         <v>0</v>
       </c>
@@ -8059,11 +8063,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
-      <c r="A301" s="60" t="s">
+    <row r="301" spans="1:7" hidden="1">
+      <c r="A301" s="66" t="s">
         <v>395</v>
       </c>
-      <c r="B301" s="61" t="s">
+      <c r="B301" s="67" t="s">
         <v>396</v>
       </c>
       <c r="C301" s="3" t="s">
@@ -8082,9 +8086,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="14" customHeight="1">
-      <c r="A302" s="60"/>
-      <c r="B302" s="61"/>
+    <row r="302" spans="1:7" ht="14" hidden="1" customHeight="1">
+      <c r="A302" s="66"/>
+      <c r="B302" s="67"/>
       <c r="C302" s="3" t="s">
         <v>14</v>
       </c>
@@ -8101,9 +8105,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="24">
-      <c r="A303" s="60"/>
-      <c r="B303" s="61"/>
+    <row r="303" spans="1:7" ht="24" hidden="1">
+      <c r="A303" s="66"/>
+      <c r="B303" s="67"/>
       <c r="C303" s="3" t="s">
         <v>63</v>
       </c>
@@ -8120,9 +8124,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="14" customHeight="1">
-      <c r="A304" s="60"/>
-      <c r="B304" s="61"/>
+    <row r="304" spans="1:7" ht="14" hidden="1" customHeight="1">
+      <c r="A304" s="66"/>
+      <c r="B304" s="67"/>
       <c r="C304" s="3" t="s">
         <v>73</v>
       </c>
@@ -8139,7 +8143,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="305" spans="1:8" s="12" customFormat="1" ht="14" customHeight="1">
+    <row r="305" spans="1:8" s="12" customFormat="1" ht="14" hidden="1" customHeight="1">
       <c r="A305" s="25"/>
       <c r="B305" s="10"/>
       <c r="C305" s="37"/>
@@ -8148,7 +8152,7 @@
       <c r="F305" s="37"/>
       <c r="G305" s="37"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" hidden="1">
       <c r="A306" s="1" t="s">
         <v>0</v>
       </c>
@@ -8171,7 +8175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="28">
+    <row r="307" spans="1:8" ht="28" hidden="1">
       <c r="A307" s="19" t="s">
         <v>177</v>
       </c>
@@ -8194,7 +8198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="20">
+    <row r="308" spans="1:8" ht="20" hidden="1">
       <c r="A308" s="5"/>
       <c r="B308" s="6"/>
       <c r="C308" s="33"/>
@@ -8203,7 +8207,7 @@
       <c r="F308" s="33"/>
       <c r="G308" s="35"/>
     </row>
-    <row r="309" spans="1:8" ht="15.75" customHeight="1">
+    <row r="309" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A309" s="1" t="s">
         <v>0</v>
       </c>
@@ -8226,11 +8230,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A310" s="60" t="s">
+    <row r="310" spans="1:8" ht="24.75" hidden="1" customHeight="1">
+      <c r="A310" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="B310" s="61" t="s">
+      <c r="B310" s="67" t="s">
         <v>404</v>
       </c>
       <c r="C310" s="3" t="s">
@@ -8249,9 +8253,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A311" s="60"/>
-      <c r="B311" s="61"/>
+    <row r="311" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+      <c r="A311" s="66"/>
+      <c r="B311" s="67"/>
       <c r="C311" s="3" t="s">
         <v>99</v>
       </c>
@@ -8268,8 +8272,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="313" spans="1:8" ht="15.75" customHeight="1">
+    <row r="312" spans="1:8" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="313" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A313" s="1" t="s">
         <v>0</v>
       </c>
@@ -8292,11 +8296,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="24.5" customHeight="1">
-      <c r="A314" s="60" t="s">
+    <row r="314" spans="1:8" ht="24.5" hidden="1" customHeight="1">
+      <c r="A314" s="66" t="s">
         <v>409</v>
       </c>
-      <c r="B314" s="61"/>
+      <c r="B314" s="67"/>
       <c r="C314" s="3" t="s">
         <v>48</v>
       </c>
@@ -8313,9 +8317,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="16.25" customHeight="1">
-      <c r="A315" s="60"/>
-      <c r="B315" s="61"/>
+    <row r="315" spans="1:8" ht="16.25" hidden="1" customHeight="1">
+      <c r="A315" s="66"/>
+      <c r="B315" s="67"/>
       <c r="C315" s="3" t="s">
         <v>14</v>
       </c>
@@ -8332,9 +8336,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
-      <c r="A316" s="60"/>
-      <c r="B316" s="61"/>
+    <row r="316" spans="1:8" hidden="1">
+      <c r="A316" s="66"/>
+      <c r="B316" s="67"/>
       <c r="C316" s="3" t="s">
         <v>411</v>
       </c>
@@ -8350,9 +8354,9 @@
       </c>
       <c r="H316" s="14"/>
     </row>
-    <row r="317" spans="1:8" ht="16.25" customHeight="1">
-      <c r="A317" s="60"/>
-      <c r="B317" s="61"/>
+    <row r="317" spans="1:8" ht="16.25" hidden="1" customHeight="1">
+      <c r="A317" s="66"/>
+      <c r="B317" s="67"/>
       <c r="C317" s="3" t="s">
         <v>413</v>
       </c>
@@ -8369,9 +8373,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
-      <c r="A318" s="60"/>
-      <c r="B318" s="61"/>
+    <row r="318" spans="1:8" hidden="1">
+      <c r="A318" s="66"/>
+      <c r="B318" s="67"/>
       <c r="C318" s="3" t="s">
         <v>415</v>
       </c>
@@ -8388,9 +8392,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A319" s="60"/>
-      <c r="B319" s="61"/>
+    <row r="319" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+      <c r="A319" s="66"/>
+      <c r="B319" s="67"/>
       <c r="C319" s="3" t="s">
         <v>418</v>
       </c>
@@ -8407,9 +8411,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A320" s="60"/>
-      <c r="B320" s="61"/>
+    <row r="320" spans="1:8" ht="15.75" hidden="1" customHeight="1">
+      <c r="A320" s="66"/>
+      <c r="B320" s="67"/>
       <c r="C320" s="3" t="s">
         <v>420</v>
       </c>
@@ -8426,7 +8430,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="15.75" customHeight="1">
+    <row r="321" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A321" s="5"/>
       <c r="B321" s="6"/>
       <c r="C321" s="33"/>
@@ -8435,7 +8439,7 @@
       <c r="F321" s="33"/>
       <c r="G321" s="33"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" hidden="1">
       <c r="A322" s="1" t="s">
         <v>0</v>
       </c>
@@ -8458,11 +8462,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
-      <c r="A323" s="60" t="s">
+    <row r="323" spans="1:7" hidden="1">
+      <c r="A323" s="66" t="s">
         <v>422</v>
       </c>
-      <c r="B323" s="61" t="s">
+      <c r="B323" s="67" t="s">
         <v>423</v>
       </c>
       <c r="C323" s="3" t="s">
@@ -8481,9 +8485,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15" customHeight="1">
-      <c r="A324" s="60"/>
-      <c r="B324" s="61"/>
+    <row r="324" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A324" s="66"/>
+      <c r="B324" s="67"/>
       <c r="C324" s="3" t="s">
         <v>14</v>
       </c>
@@ -8500,9 +8504,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="15" customHeight="1">
-      <c r="A325" s="60"/>
-      <c r="B325" s="61"/>
+    <row r="325" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A325" s="66"/>
+      <c r="B325" s="67"/>
       <c r="C325" s="3" t="s">
         <v>425</v>
       </c>
@@ -8519,9 +8523,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="15" customHeight="1">
-      <c r="A326" s="60"/>
-      <c r="B326" s="61"/>
+    <row r="326" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A326" s="66"/>
+      <c r="B326" s="67"/>
       <c r="C326" s="3" t="s">
         <v>26</v>
       </c>
@@ -8538,9 +8542,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="15" customHeight="1">
-      <c r="A327" s="60"/>
-      <c r="B327" s="61"/>
+    <row r="327" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A327" s="66"/>
+      <c r="B327" s="67"/>
       <c r="C327" s="3" t="s">
         <v>429</v>
       </c>
@@ -8557,9 +8561,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A328" s="60"/>
-      <c r="B328" s="61"/>
+    <row r="328" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A328" s="66"/>
+      <c r="B328" s="67"/>
       <c r="C328" s="13" t="s">
         <v>140</v>
       </c>
@@ -8576,9 +8580,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15" customHeight="1">
-      <c r="A329" s="60"/>
-      <c r="B329" s="61"/>
+    <row r="329" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A329" s="66"/>
+      <c r="B329" s="67"/>
       <c r="C329" s="3" t="s">
         <v>20</v>
       </c>
@@ -8595,9 +8599,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="15" customHeight="1">
-      <c r="A330" s="60"/>
-      <c r="B330" s="61"/>
+    <row r="330" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A330" s="66"/>
+      <c r="B330" s="67"/>
       <c r="C330" s="3" t="s">
         <v>23</v>
       </c>
@@ -8614,9 +8618,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A331" s="60"/>
-      <c r="B331" s="61"/>
+    <row r="331" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A331" s="66"/>
+      <c r="B331" s="67"/>
       <c r="C331" s="3" t="s">
         <v>91</v>
       </c>
@@ -8633,9 +8637,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A332" s="60"/>
-      <c r="B332" s="61"/>
+    <row r="332" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="A332" s="66"/>
+      <c r="B332" s="67"/>
       <c r="C332" s="3" t="s">
         <v>73</v>
       </c>
@@ -8652,8 +8656,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="334" spans="1:7">
+    <row r="333" spans="1:7" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="334" spans="1:7" hidden="1">
       <c r="A334" s="1" t="s">
         <v>0</v>
       </c>
@@ -8676,11 +8680,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
-      <c r="A335" s="60" t="s">
+    <row r="335" spans="1:7" hidden="1">
+      <c r="A335" s="66" t="s">
         <v>439</v>
       </c>
-      <c r="B335" s="61" t="s">
+      <c r="B335" s="67" t="s">
         <v>440</v>
       </c>
       <c r="C335" s="3" t="s">
@@ -8699,9 +8703,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
-      <c r="A336" s="60"/>
-      <c r="B336" s="61"/>
+    <row r="336" spans="1:7" hidden="1">
+      <c r="A336" s="66"/>
+      <c r="B336" s="67"/>
       <c r="C336" s="3" t="s">
         <v>14</v>
       </c>
@@ -8718,9 +8722,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
-      <c r="A337" s="60"/>
-      <c r="B337" s="61"/>
+    <row r="337" spans="1:7" hidden="1">
+      <c r="A337" s="66"/>
+      <c r="B337" s="67"/>
       <c r="C337" s="3" t="s">
         <v>441</v>
       </c>
@@ -8737,9 +8741,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
-      <c r="A338" s="60"/>
-      <c r="B338" s="61"/>
+    <row r="338" spans="1:7" hidden="1">
+      <c r="A338" s="66"/>
+      <c r="B338" s="67"/>
       <c r="C338" s="3" t="s">
         <v>26</v>
       </c>
@@ -8756,9 +8760,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
-      <c r="A339" s="60"/>
-      <c r="B339" s="61"/>
+    <row r="339" spans="1:7" hidden="1">
+      <c r="A339" s="66"/>
+      <c r="B339" s="67"/>
       <c r="C339" s="3" t="s">
         <v>429</v>
       </c>
@@ -8775,9 +8779,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
-      <c r="A340" s="60"/>
-      <c r="B340" s="61"/>
+    <row r="340" spans="1:7" hidden="1">
+      <c r="A340" s="66"/>
+      <c r="B340" s="67"/>
       <c r="C340" s="13" t="s">
         <v>140</v>
       </c>
@@ -8794,9 +8798,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
-      <c r="A341" s="60"/>
-      <c r="B341" s="61"/>
+    <row r="341" spans="1:7" hidden="1">
+      <c r="A341" s="66"/>
+      <c r="B341" s="67"/>
       <c r="C341" s="3" t="s">
         <v>23</v>
       </c>
@@ -8813,9 +8817,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
-      <c r="A342" s="60"/>
-      <c r="B342" s="61"/>
+    <row r="342" spans="1:7" hidden="1">
+      <c r="A342" s="66"/>
+      <c r="B342" s="67"/>
       <c r="C342" s="3" t="s">
         <v>91</v>
       </c>
@@ -8832,9 +8836,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
-      <c r="A343" s="60"/>
-      <c r="B343" s="61"/>
+    <row r="343" spans="1:7" hidden="1">
+      <c r="A343" s="66"/>
+      <c r="B343" s="67"/>
       <c r="C343" s="3" t="s">
         <v>73</v>
       </c>
@@ -8851,6 +8855,7 @@
         <v>72</v>
       </c>
     </row>
+    <row r="344" spans="1:7" hidden="1"/>
     <row r="345" spans="1:7">
       <c r="A345" s="1" t="s">
         <v>0</v>
@@ -8875,10 +8880,10 @@
       </c>
     </row>
     <row r="346" spans="1:7" ht="15" customHeight="1">
-      <c r="A346" s="60" t="s">
+      <c r="A346" s="66" t="s">
         <v>447</v>
       </c>
-      <c r="B346" s="61" t="s">
+      <c r="B346" s="67" t="s">
         <v>448</v>
       </c>
       <c r="C346" s="3" t="s">
@@ -8898,8 +8903,8 @@
       </c>
     </row>
     <row r="347" spans="1:7" ht="15" customHeight="1">
-      <c r="A347" s="60"/>
-      <c r="B347" s="61"/>
+      <c r="A347" s="66"/>
+      <c r="B347" s="67"/>
       <c r="C347" s="3" t="s">
         <v>14</v>
       </c>
@@ -8917,8 +8922,8 @@
       </c>
     </row>
     <row r="348" spans="1:7" ht="15" customHeight="1">
-      <c r="A348" s="60"/>
-      <c r="B348" s="61"/>
+      <c r="A348" s="66"/>
+      <c r="B348" s="67"/>
       <c r="C348" s="3" t="s">
         <v>450</v>
       </c>
@@ -8936,8 +8941,8 @@
       </c>
     </row>
     <row r="349" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A349" s="60"/>
-      <c r="B349" s="61"/>
+      <c r="A349" s="66"/>
+      <c r="B349" s="67"/>
       <c r="C349" s="3" t="s">
         <v>452</v>
       </c>
@@ -8955,8 +8960,8 @@
       </c>
     </row>
     <row r="350" spans="1:7">
-      <c r="A350" s="60"/>
-      <c r="B350" s="61"/>
+      <c r="A350" s="66"/>
+      <c r="B350" s="67"/>
       <c r="C350" s="3" t="s">
         <v>73</v>
       </c>
@@ -9006,10 +9011,10 @@
       </c>
     </row>
     <row r="353" spans="1:7" ht="15" customHeight="1">
-      <c r="A353" s="60" t="s">
+      <c r="A353" s="66" t="s">
         <v>456</v>
       </c>
-      <c r="B353" s="61" t="s">
+      <c r="B353" s="67" t="s">
         <v>457</v>
       </c>
       <c r="C353" s="3" t="s">
@@ -9029,8 +9034,8 @@
       </c>
     </row>
     <row r="354" spans="1:7" ht="15" customHeight="1">
-      <c r="A354" s="60"/>
-      <c r="B354" s="61"/>
+      <c r="A354" s="66"/>
+      <c r="B354" s="67"/>
       <c r="C354" s="3" t="s">
         <v>14</v>
       </c>
@@ -9048,8 +9053,8 @@
       </c>
     </row>
     <row r="355" spans="1:7" ht="15" customHeight="1">
-      <c r="A355" s="60"/>
-      <c r="B355" s="61"/>
+      <c r="A355" s="66"/>
+      <c r="B355" s="67"/>
       <c r="C355" s="3" t="s">
         <v>450</v>
       </c>
@@ -9067,8 +9072,8 @@
       </c>
     </row>
     <row r="356" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A356" s="60"/>
-      <c r="B356" s="61"/>
+      <c r="A356" s="66"/>
+      <c r="B356" s="67"/>
       <c r="C356" s="3" t="s">
         <v>452</v>
       </c>
@@ -9086,8 +9091,8 @@
       </c>
     </row>
     <row r="357" spans="1:7">
-      <c r="A357" s="60"/>
-      <c r="B357" s="61"/>
+      <c r="A357" s="66"/>
+      <c r="B357" s="67"/>
       <c r="C357" s="3" t="s">
         <v>73</v>
       </c>
@@ -9128,10 +9133,10 @@
       </c>
     </row>
     <row r="360" spans="1:7">
-      <c r="A360" s="60" t="s">
+      <c r="A360" s="66" t="s">
         <v>461</v>
       </c>
-      <c r="B360" s="61" t="s">
+      <c r="B360" s="67" t="s">
         <v>462</v>
       </c>
       <c r="C360" s="3" t="s">
@@ -9151,8 +9156,8 @@
       </c>
     </row>
     <row r="361" spans="1:7" ht="15" customHeight="1">
-      <c r="A361" s="60"/>
-      <c r="B361" s="61"/>
+      <c r="A361" s="66"/>
+      <c r="B361" s="67"/>
       <c r="C361" s="3" t="s">
         <v>14</v>
       </c>
@@ -9170,8 +9175,8 @@
       </c>
     </row>
     <row r="362" spans="1:7" ht="15" customHeight="1">
-      <c r="A362" s="60"/>
-      <c r="B362" s="61"/>
+      <c r="A362" s="66"/>
+      <c r="B362" s="67"/>
       <c r="C362" s="3" t="s">
         <v>464</v>
       </c>
@@ -9189,8 +9194,8 @@
       </c>
     </row>
     <row r="363" spans="1:7">
-      <c r="A363" s="60"/>
-      <c r="B363" s="61"/>
+      <c r="A363" s="66"/>
+      <c r="B363" s="67"/>
       <c r="C363" s="3" t="s">
         <v>467</v>
       </c>
@@ -9208,8 +9213,8 @@
       </c>
     </row>
     <row r="364" spans="1:7">
-      <c r="A364" s="60"/>
-      <c r="B364" s="61"/>
+      <c r="A364" s="66"/>
+      <c r="B364" s="67"/>
       <c r="C364" s="3" t="s">
         <v>470</v>
       </c>
@@ -9227,8 +9232,8 @@
       </c>
     </row>
     <row r="365" spans="1:7">
-      <c r="A365" s="60"/>
-      <c r="B365" s="61"/>
+      <c r="A365" s="66"/>
+      <c r="B365" s="67"/>
       <c r="C365" s="3" t="s">
         <v>23</v>
       </c>
@@ -9246,8 +9251,8 @@
       </c>
     </row>
     <row r="366" spans="1:7">
-      <c r="A366" s="60"/>
-      <c r="B366" s="61"/>
+      <c r="A366" s="66"/>
+      <c r="B366" s="67"/>
       <c r="C366" s="13" t="s">
         <v>26</v>
       </c>
@@ -9265,8 +9270,8 @@
       </c>
     </row>
     <row r="367" spans="1:7">
-      <c r="A367" s="60"/>
-      <c r="B367" s="61"/>
+      <c r="A367" s="66"/>
+      <c r="B367" s="67"/>
       <c r="C367" s="3" t="s">
         <v>474</v>
       </c>
@@ -9284,8 +9289,8 @@
       </c>
     </row>
     <row r="368" spans="1:7">
-      <c r="A368" s="60"/>
-      <c r="B368" s="61"/>
+      <c r="A368" s="66"/>
+      <c r="B368" s="67"/>
       <c r="C368" s="3" t="s">
         <v>73</v>
       </c>
@@ -9303,8 +9308,8 @@
       </c>
     </row>
     <row r="369" spans="1:7" ht="24">
-      <c r="A369" s="60"/>
-      <c r="B369" s="61"/>
+      <c r="A369" s="66"/>
+      <c r="B369" s="67"/>
       <c r="C369" s="3" t="s">
         <v>140</v>
       </c>
@@ -9350,10 +9355,10 @@
       </c>
     </row>
     <row r="372" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A372" s="60" t="s">
+      <c r="A372" s="66" t="s">
         <v>503</v>
       </c>
-      <c r="B372" s="61" t="s">
+      <c r="B372" s="67" t="s">
         <v>504</v>
       </c>
       <c r="C372" s="3" t="s">
@@ -9373,8 +9378,8 @@
       </c>
     </row>
     <row r="373" spans="1:7" ht="24">
-      <c r="A373" s="60"/>
-      <c r="B373" s="61"/>
+      <c r="A373" s="66"/>
+      <c r="B373" s="67"/>
       <c r="C373" s="3" t="s">
         <v>505</v>
       </c>
@@ -9392,8 +9397,8 @@
       </c>
     </row>
     <row r="374" spans="1:7">
-      <c r="A374" s="60"/>
-      <c r="B374" s="61"/>
+      <c r="A374" s="66"/>
+      <c r="B374" s="67"/>
       <c r="C374" s="3" t="s">
         <v>73</v>
       </c>
@@ -9434,10 +9439,10 @@
       </c>
     </row>
     <row r="377" spans="1:7" ht="24">
-      <c r="A377" s="60" t="s">
+      <c r="A377" s="66" t="s">
         <v>508</v>
       </c>
-      <c r="B377" s="61" t="s">
+      <c r="B377" s="67" t="s">
         <v>509</v>
       </c>
       <c r="C377" s="27" t="s">
@@ -9457,8 +9462,8 @@
       </c>
     </row>
     <row r="378" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A378" s="60"/>
-      <c r="B378" s="61"/>
+      <c r="A378" s="66"/>
+      <c r="B378" s="67"/>
       <c r="C378" s="27" t="s">
         <v>511</v>
       </c>
@@ -9476,8 +9481,8 @@
       </c>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="60"/>
-      <c r="B379" s="61"/>
+      <c r="A379" s="66"/>
+      <c r="B379" s="67"/>
       <c r="C379" s="27" t="s">
         <v>514</v>
       </c>
@@ -9496,6 +9501,88 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="A372:A374"/>
+    <mergeCell ref="B372:B374"/>
+    <mergeCell ref="A377:A379"/>
+    <mergeCell ref="B377:B379"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="A353:A357"/>
+    <mergeCell ref="B353:B357"/>
+    <mergeCell ref="A360:A369"/>
+    <mergeCell ref="B360:B369"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="A323:A332"/>
+    <mergeCell ref="B323:B332"/>
+    <mergeCell ref="A335:A343"/>
+    <mergeCell ref="B335:B343"/>
+    <mergeCell ref="A346:A350"/>
+    <mergeCell ref="B346:B350"/>
+    <mergeCell ref="A211:A221"/>
+    <mergeCell ref="B211:B221"/>
+    <mergeCell ref="A301:A304"/>
+    <mergeCell ref="B301:B304"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="A314:A320"/>
+    <mergeCell ref="B314:B320"/>
+    <mergeCell ref="A273:A280"/>
+    <mergeCell ref="B273:B280"/>
+    <mergeCell ref="A283:A290"/>
+    <mergeCell ref="B283:B290"/>
+    <mergeCell ref="A293:A298"/>
+    <mergeCell ref="B293:B298"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="A254:A262"/>
+    <mergeCell ref="B254:B262"/>
+    <mergeCell ref="A265:A270"/>
+    <mergeCell ref="B265:B270"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="B237:B239"/>
+    <mergeCell ref="A183:A191"/>
+    <mergeCell ref="B183:B191"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A200:A208"/>
+    <mergeCell ref="B200:B208"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="A119:A133"/>
+    <mergeCell ref="B119:B133"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="A143:A151"/>
+    <mergeCell ref="B143:B151"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="A114:A116"/>
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="A246:A247"/>
@@ -9520,88 +9607,6 @@
     <mergeCell ref="B40:B47"/>
     <mergeCell ref="A79:A86"/>
     <mergeCell ref="B79:B86"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="A119:A133"/>
-    <mergeCell ref="B119:B133"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="A143:A151"/>
-    <mergeCell ref="B143:B151"/>
-    <mergeCell ref="A183:A191"/>
-    <mergeCell ref="B183:B191"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A200:A208"/>
-    <mergeCell ref="B200:B208"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="A211:A221"/>
-    <mergeCell ref="B211:B221"/>
-    <mergeCell ref="A301:A304"/>
-    <mergeCell ref="B301:B304"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="A314:A320"/>
-    <mergeCell ref="B314:B320"/>
-    <mergeCell ref="A273:A280"/>
-    <mergeCell ref="B273:B280"/>
-    <mergeCell ref="A283:A290"/>
-    <mergeCell ref="B283:B290"/>
-    <mergeCell ref="A293:A298"/>
-    <mergeCell ref="B293:B298"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="A254:A262"/>
-    <mergeCell ref="B254:B262"/>
-    <mergeCell ref="A265:A270"/>
-    <mergeCell ref="B265:B270"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="A237:A239"/>
-    <mergeCell ref="B237:B239"/>
-    <mergeCell ref="A372:A374"/>
-    <mergeCell ref="B372:B374"/>
-    <mergeCell ref="A377:A379"/>
-    <mergeCell ref="B377:B379"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="A353:A357"/>
-    <mergeCell ref="B353:B357"/>
-    <mergeCell ref="A360:A369"/>
-    <mergeCell ref="B360:B369"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="A323:A332"/>
-    <mergeCell ref="B323:B332"/>
-    <mergeCell ref="A335:A343"/>
-    <mergeCell ref="B335:B343"/>
-    <mergeCell ref="A346:A350"/>
-    <mergeCell ref="B346:B350"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
